--- a/ExcelPatternTool.Tests/case/test.xlsx
+++ b/ExcelPatternTool.Tests/case/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14970" windowHeight="7785" activeTab="2"/>
+    <workbookView windowWidth="14970" windowHeight="7785" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="常规" sheetId="2" r:id="rId1"/>
@@ -163,7 +163,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="145">
   <si>
     <t>常规</t>
   </si>
@@ -282,97 +282,271 @@
     <t>李明</t>
   </si>
   <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>36.1</t>
+  </si>
+  <si>
     <t>王丽</t>
   </si>
   <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>36.3</t>
+  </si>
+  <si>
     <t>张华</t>
   </si>
   <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
     <t>陈冬</t>
   </si>
   <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
     <t>杨春</t>
   </si>
   <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
     <t>马超</t>
   </si>
   <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>36.5</t>
+  </si>
+  <si>
     <t>赵亮</t>
   </si>
   <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>36.2</t>
+  </si>
+  <si>
     <t>王雨</t>
   </si>
   <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
     <t>李娟</t>
   </si>
   <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
     <t>何梅</t>
   </si>
   <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
     <t>黄敏</t>
   </si>
   <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
     <t>韩萍</t>
   </si>
   <si>
+    <t>78</t>
+  </si>
+  <si>
     <t>朱艳</t>
   </si>
   <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
     <t>王婷</t>
   </si>
   <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
     <t>吴伟</t>
   </si>
   <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>36.4</t>
+  </si>
+  <si>
     <t>田丽</t>
   </si>
   <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
     <t>赵芳</t>
   </si>
   <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
     <t>林俊</t>
   </si>
   <si>
+    <t>115</t>
+  </si>
+  <si>
     <t>周华</t>
   </si>
   <si>
     <t>王燕</t>
   </si>
   <si>
+    <t>121</t>
+  </si>
+  <si>
     <t>汪洋</t>
   </si>
   <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
     <t>郭伟</t>
   </si>
   <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
     <t>黄磊</t>
   </si>
   <si>
     <t>朱娜</t>
   </si>
   <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
     <t>王丽丽</t>
   </si>
   <si>
+    <t>152</t>
+  </si>
+  <si>
     <t>张敏敏</t>
   </si>
   <si>
+    <t>62</t>
+  </si>
+  <si>
     <t>李波波</t>
   </si>
   <si>
     <t>陈红红</t>
   </si>
   <si>
+    <t>110</t>
+  </si>
+  <si>
     <t>赵辉辉</t>
   </si>
   <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
     <t>王鑫鑫</t>
   </si>
   <si>
+    <t>37</t>
+  </si>
+  <si>
     <t>张雨雨</t>
   </si>
   <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
     <t>王星星</t>
+  </si>
+  <si>
+    <t>39</t>
   </si>
   <si>
     <t>身份证</t>
@@ -435,8 +609,8 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="34">
@@ -1076,7 +1250,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1173,12 +1347,12 @@
     <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="177" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1189,9 +1363,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1610,7 +1781,7 @@
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="18">
         <v>44768</v>
       </c>
       <c r="C2" s="3">
@@ -1629,7 +1800,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="3">
-        <f t="shared" ref="H2:H14" si="0">SUM(F2,G2)</f>
+        <f t="shared" ref="H2:H15" si="0">SUM(F2,G2)</f>
         <v>11</v>
       </c>
     </row>
@@ -1637,7 +1808,7 @@
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="18">
         <v>44769</v>
       </c>
       <c r="C3" s="3">
@@ -1664,7 +1835,7 @@
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="18">
         <v>44770</v>
       </c>
       <c r="C4" s="3">
@@ -1691,7 +1862,7 @@
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="18">
         <v>44771</v>
       </c>
       <c r="C5" s="3">
@@ -1718,7 +1889,7 @@
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="18">
         <v>44769</v>
       </c>
       <c r="C6" s="3">
@@ -1745,7 +1916,7 @@
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="18">
         <v>44770</v>
       </c>
       <c r="C7" s="3">
@@ -1772,7 +1943,7 @@
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="18">
         <v>44771</v>
       </c>
       <c r="C8" s="3">
@@ -1799,7 +1970,7 @@
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="18">
         <v>44769</v>
       </c>
       <c r="C9" s="3">
@@ -1826,7 +1997,7 @@
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="18">
         <v>44770</v>
       </c>
       <c r="C10" s="3">
@@ -1853,7 +2024,7 @@
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="18">
         <v>44771</v>
       </c>
       <c r="C11" s="3">
@@ -1880,7 +2051,7 @@
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="18">
         <v>44768</v>
       </c>
       <c r="C12" s="3">
@@ -1907,7 +2078,7 @@
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="18">
         <v>44768</v>
       </c>
       <c r="C13" s="3">
@@ -1934,7 +2105,7 @@
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="18">
         <v>44768</v>
       </c>
       <c r="C14" s="3">
@@ -1961,7 +2132,7 @@
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15" s="19">
         <v>44844</v>
       </c>
       <c r="C15">
@@ -1980,7 +2151,7 @@
         <v>2</v>
       </c>
       <c r="H15" s="3">
-        <f>SUM(F15,G15)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
@@ -2018,7 +2189,7 @@
       <c r="C1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E1" s="4" t="s">
@@ -2026,7 +2197,7 @@
       </c>
     </row>
     <row r="2" s="3" customFormat="1" spans="1:5">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -2036,15 +2207,15 @@
         <f>B2</f>
         <v>张三</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:5">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -2054,15 +2225,15 @@
         <f t="shared" ref="C3:C15" si="0">B3</f>
         <v>李四</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" s="3" customFormat="1" spans="1:5">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -2072,15 +2243,15 @@
         <f t="shared" si="0"/>
         <v>王五</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1" spans="1:5">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -2090,15 +2261,15 @@
         <f t="shared" si="0"/>
         <v>赵六</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1" spans="1:5">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -2108,15 +2279,15 @@
         <f t="shared" si="0"/>
         <v>王芳</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="1" spans="1:5">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -2126,15 +2297,15 @@
         <f t="shared" si="0"/>
         <v>李娜</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" s="3" customFormat="1" spans="1:5">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -2144,15 +2315,15 @@
         <f t="shared" si="0"/>
         <v>王勇</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" s="3" customFormat="1" spans="1:5">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -2162,15 +2333,15 @@
         <f t="shared" si="0"/>
         <v>张敏</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" s="3" customFormat="1" spans="1:5">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -2180,15 +2351,15 @@
         <f t="shared" si="0"/>
         <v>陈磊</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="14" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" s="3" customFormat="1" spans="1:5">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -2198,15 +2369,15 @@
         <f t="shared" si="0"/>
         <v>杨杰</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" s="3" customFormat="1" spans="1:5">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -2216,15 +2387,15 @@
         <f t="shared" si="0"/>
         <v>刘洋</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" s="3" customFormat="1" spans="1:5">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -2234,10 +2405,10 @@
         <f t="shared" si="0"/>
         <v>陈波</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="17" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2253,7 +2424,7 @@
   <sheetPr/>
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
@@ -2693,10 +2864,10 @@
   <sheetPr/>
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2724,546 +2895,546 @@
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="2">
-        <v>122</v>
-      </c>
-      <c r="C2" s="2">
-        <v>80</v>
-      </c>
-      <c r="D2" s="2">
-        <v>36.3</v>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="2">
-        <v>99</v>
-      </c>
-      <c r="C3" s="2">
-        <v>57</v>
-      </c>
-      <c r="D3" s="2">
-        <v>36.3</v>
+        <v>42</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="2">
-        <v>121</v>
-      </c>
-      <c r="C4" s="2">
-        <v>91</v>
-      </c>
-      <c r="D4" s="2">
-        <v>36.1</v>
+        <v>46</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="2">
-        <v>98</v>
-      </c>
-      <c r="C5" s="2">
-        <v>59</v>
-      </c>
-      <c r="D5" s="2">
-        <v>36.1</v>
+      <c r="B5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="2">
-        <v>107</v>
-      </c>
-      <c r="C6" s="2">
-        <v>62</v>
-      </c>
-      <c r="D6" s="2">
-        <v>36.1</v>
+        <v>52</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="2">
-        <v>93</v>
-      </c>
-      <c r="C7" s="2">
-        <v>60</v>
-      </c>
-      <c r="D7" s="2">
-        <v>36.2</v>
+        <v>55</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="2">
-        <v>117</v>
-      </c>
-      <c r="C8" s="2">
-        <v>87</v>
-      </c>
-      <c r="D8" s="2">
-        <v>36.2</v>
+        <v>58</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="2">
-        <v>96</v>
-      </c>
-      <c r="C9" s="2">
-        <v>60</v>
-      </c>
-      <c r="D9" s="2">
-        <v>36.2</v>
+        <v>62</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="2">
-        <v>130</v>
-      </c>
-      <c r="C10" s="2">
-        <v>78</v>
-      </c>
-      <c r="D10" s="2">
-        <v>36.1</v>
+        <v>65</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="2">
-        <v>128</v>
-      </c>
-      <c r="C11" s="2">
-        <v>88</v>
-      </c>
-      <c r="D11" s="2">
-        <v>36.3</v>
+        <v>68</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="2">
-        <v>152</v>
-      </c>
-      <c r="C12" s="2">
-        <v>87</v>
-      </c>
-      <c r="D12" s="2">
-        <v>36.3</v>
+        <v>71</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="2">
-        <v>110</v>
-      </c>
-      <c r="C13" s="2">
-        <v>69</v>
-      </c>
-      <c r="D13" s="2">
-        <v>36.3</v>
+        <v>74</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="2">
-        <v>129</v>
-      </c>
-      <c r="C14" s="2">
-        <v>91</v>
-      </c>
-      <c r="D14" s="2">
-        <v>36.5</v>
+        <v>77</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="2">
-        <v>99</v>
-      </c>
-      <c r="C15" s="2">
-        <v>70</v>
-      </c>
-      <c r="D15" s="2">
-        <v>37.5</v>
+        <v>79</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="2">
-        <v>136</v>
-      </c>
-      <c r="C16" s="2">
-        <v>89</v>
-      </c>
-      <c r="D16" s="2">
-        <v>36.4</v>
+        <v>82</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="2">
-        <v>131</v>
-      </c>
-      <c r="C17" s="2">
-        <v>87</v>
-      </c>
-      <c r="D17" s="2">
-        <v>36.3</v>
+      <c r="B17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="2">
-        <v>103</v>
-      </c>
-      <c r="C18" s="2">
-        <v>65</v>
-      </c>
-      <c r="D18" s="2">
-        <v>36.1</v>
+      <c r="B18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="2">
-        <v>103</v>
-      </c>
-      <c r="C19" s="2">
-        <v>68</v>
-      </c>
-      <c r="D19" s="2">
-        <v>36</v>
+        <v>85</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="2">
-        <v>125</v>
-      </c>
-      <c r="C20" s="2">
-        <v>81</v>
-      </c>
-      <c r="D20" s="2">
-        <v>36.1</v>
+        <v>89</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="2">
-        <v>111</v>
-      </c>
-      <c r="C21" s="2">
-        <v>69</v>
-      </c>
-      <c r="D21" s="2">
-        <v>36</v>
+        <v>92</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="2">
-        <v>125</v>
-      </c>
-      <c r="C22" s="2">
-        <v>69</v>
-      </c>
-      <c r="D22" s="2">
-        <v>36.1</v>
+        <v>95</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" s="2">
-        <v>107</v>
-      </c>
-      <c r="C23" s="2">
-        <v>48</v>
-      </c>
-      <c r="D23" s="2">
-        <v>36.1</v>
+        <v>97</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="2">
-        <v>115</v>
-      </c>
-      <c r="C24" s="2">
-        <v>80</v>
-      </c>
-      <c r="D24" s="2">
-        <v>36.1</v>
+        <v>98</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" s="2">
-        <v>146</v>
-      </c>
-      <c r="C25" s="2">
-        <v>81</v>
-      </c>
-      <c r="D25" s="2">
-        <v>36</v>
+        <v>100</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="2">
-        <v>108</v>
-      </c>
-      <c r="C26" s="2">
-        <v>66</v>
-      </c>
-      <c r="D26" s="2">
-        <v>36.1</v>
+      <c r="B26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B27" s="2">
-        <v>118</v>
-      </c>
-      <c r="C27" s="2">
-        <v>67</v>
-      </c>
-      <c r="D27" s="2">
-        <v>36.2</v>
+        <v>103</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" s="2">
-        <v>96</v>
-      </c>
-      <c r="C28" s="2">
-        <v>51</v>
-      </c>
-      <c r="D28" s="2">
-        <v>36.2</v>
+        <v>106</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B29" s="2">
-        <v>124</v>
-      </c>
-      <c r="C29" s="2">
-        <v>76</v>
-      </c>
-      <c r="D29" s="2">
-        <v>36.3</v>
+        <v>107</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="2">
-        <v>106</v>
-      </c>
-      <c r="C30" s="2">
-        <v>66</v>
-      </c>
-      <c r="D30" s="2">
-        <v>37.2</v>
+      <c r="B30" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="2">
-        <v>144</v>
-      </c>
-      <c r="C31" s="2">
-        <v>73</v>
-      </c>
-      <c r="D31" s="2">
-        <v>36.2</v>
+      <c r="B31" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="2">
-        <v>106</v>
-      </c>
-      <c r="C32" s="2">
-        <v>77</v>
-      </c>
-      <c r="D32" s="2">
-        <v>36</v>
+      <c r="B32" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B33" s="2">
+        <v>111</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C33" s="2">
-        <v>74</v>
-      </c>
-      <c r="D33" s="2">
-        <v>36.1</v>
+      <c r="C33" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B34" s="2">
+        <v>113</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C34" s="2">
-        <v>67</v>
-      </c>
-      <c r="D34" s="2">
-        <v>36</v>
+      <c r="D34" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B35" s="2">
-        <v>117</v>
-      </c>
-      <c r="C35" s="2">
-        <v>78</v>
-      </c>
-      <c r="D35" s="2">
-        <v>36.1</v>
+        <v>115</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B36" s="2">
-        <v>145</v>
-      </c>
-      <c r="C36" s="2">
-        <v>75</v>
-      </c>
-      <c r="D36" s="2">
-        <v>36.2</v>
+        <v>116</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B37" s="2">
-        <v>122</v>
-      </c>
-      <c r="C37" s="2">
-        <v>66</v>
-      </c>
-      <c r="D37" s="2">
-        <v>36.3</v>
+        <v>118</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B38" s="2">
-        <v>140</v>
-      </c>
-      <c r="C38" s="2">
-        <v>86</v>
-      </c>
-      <c r="D38" s="2">
-        <v>36.3</v>
+        <v>121</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B39" s="2">
-        <v>130</v>
-      </c>
-      <c r="C39" s="2">
-        <v>66</v>
-      </c>
-      <c r="D39" s="2">
-        <v>36.2</v>
+        <v>123</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B40" s="2">
-        <v>106</v>
-      </c>
-      <c r="C40" s="2">
-        <v>65</v>
-      </c>
-      <c r="D40" s="2">
-        <v>36.3</v>
+        <v>126</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:1">
@@ -3299,37 +3470,37 @@
         <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="C1" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="D1" t="s">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="E1" t="s">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="F1" t="s">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="G1" t="s">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="H1" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="I1" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="J1" t="s">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="K1" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="L1" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -3337,7 +3508,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="C2">
         <v>13928602333</v>
@@ -3351,7 +3522,6 @@
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2"/>
       <c r="H2">
         <v>0</v>
       </c>
@@ -3374,7 +3544,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="C3">
         <v>15019696720</v>
@@ -3388,7 +3558,6 @@
       <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3"/>
       <c r="H3">
         <v>0</v>
       </c>
@@ -3411,7 +3580,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
       <c r="C4">
         <v>13802628910</v>
@@ -3425,7 +3594,6 @@
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4"/>
       <c r="H4">
         <v>0</v>
       </c>
@@ -3448,7 +3616,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>142</v>
       </c>
       <c r="C5">
         <v>13822812135</v>
@@ -3462,7 +3630,6 @@
       <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5"/>
       <c r="H5">
         <v>0</v>
       </c>
@@ -3485,7 +3652,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>143</v>
       </c>
       <c r="C6">
         <v>13623047396</v>
@@ -3499,7 +3666,6 @@
       <c r="F6">
         <v>0</v>
       </c>
-      <c r="G6"/>
       <c r="H6">
         <v>0</v>
       </c>
@@ -3522,7 +3688,7 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>144</v>
       </c>
       <c r="C7">
         <v>18023279547</v>
@@ -3533,7 +3699,6 @@
       <c r="E7">
         <v>1200</v>
       </c>
-      <c r="F7"/>
       <c r="G7">
         <v>1000</v>
       </c>
@@ -3559,7 +3724,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="C8">
         <v>18688029696</v>
@@ -3598,7 +3763,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="C9">
         <v>13827372610</v>
@@ -3637,7 +3802,7 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
       <c r="C10">
         <v>18555555555</v>
@@ -3676,7 +3841,7 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>142</v>
       </c>
       <c r="C11">
         <v>13542814214</v>
@@ -3715,7 +3880,7 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>85</v>
+        <v>143</v>
       </c>
       <c r="C12">
         <v>18588656150</v>
@@ -3754,7 +3919,7 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>144</v>
       </c>
       <c r="C13">
         <v>13432415049</v>
